--- a/output/inference_results/test_sheets/batch_003/test_sheet (24).xlsx
+++ b/output/inference_results/test_sheets/batch_003/test_sheet (24).xlsx
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>谷氨酰转肽酶</t>
+          <t>γ谷氨酰转肽酶</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>umo1/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>前白蛋白</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11白蛋白</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,7 +698,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>12球蛋白</t>
+          <t>球蛋白</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13白球比</t>
+          <t>白球比</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14尿素氨</t>
+          <t>尿素</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15肌酐</t>
+          <t>肌酐</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -782,7 +782,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16尿酸</t>
+          <t>尿酸</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -859,7 +859,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>22镁</t>
+          <t>镁</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>二氧化碳结合力</t>
+          <t>总二氧化碳</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24总胆固醇</t>
+          <t>总胆固醇</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25甘油三酯</t>
+          <t>甘油三酯</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -982,17 +982,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>26高密度脂蛋白</t>
+          <t>高密度脂蛋白胆固醇</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>mmo1/L</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1004,7 +1004,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27低密度脂蛋白</t>
+          <t>低密度脂蛋白胆固醇</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>载脂蛋白AI</t>
+          <t>载脂蛋白-B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>g/L1.00-175</t>
+          <t>g/L</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>g/L1.00-175</t>
+          <t>1.00-175</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>29载脂蛋白B</t>
+          <t>载脂蛋白-B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>gL0.60-1.10</t>
+          <t>0.60-1.10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30脂蛋白a</t>
+          <t>白蛋白</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1080,19 +1080,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mg/L0-300</t>
+          <t>mg/L</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mg/L0-300</t>
+          <t>0-300</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>31血糖（空腹）</t>
+          <t>血糖</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>mmo1/L3.89-6.11</t>
+          <t>mmol/L</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>mmo1/L3.89-6.11</t>
+          <t>3.89-6.11</t>
         </is>
       </c>
     </row>
